--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farjan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\Power-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA88EEC-122E-4F67-8D13-3385FA514D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5B84F-8966-4F25-8335-6E3BBC8CDE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
-  <si>
-    <t>Methods to Apply</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
   <si>
     <t>Gauss Seidel (GS)</t>
   </si>
@@ -56,9 +53,6 @@
     <t>DC Power-Flow (DC)</t>
   </si>
   <si>
-    <t>General Settings</t>
-  </si>
-  <si>
     <t>Min. Convergence Error</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t>File Output Name</t>
   </si>
   <si>
-    <t>Angular Transient Stability Settings</t>
-  </si>
-  <si>
     <t>Apply Analysis</t>
   </si>
   <si>
@@ -80,24 +71,15 @@
     <t>Runge-Kutta 4th Order (RK4)</t>
   </si>
   <si>
-    <t>Values</t>
-  </si>
-  <si>
     <t>results_1</t>
   </si>
   <si>
-    <t>Run (Y or N)?</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Differential Equation Method Solution</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Use Angles of DC Method</t>
   </si>
   <si>
@@ -207,6 +189,120 @@
   </si>
   <si>
     <t>bus_angle</t>
+  </si>
+  <si>
+    <t>BUS02</t>
+  </si>
+  <si>
+    <t>BUS01</t>
+  </si>
+  <si>
+    <t>BUS03</t>
+  </si>
+  <si>
+    <t>BUS04</t>
+  </si>
+  <si>
+    <t>BUS05</t>
+  </si>
+  <si>
+    <t>BUS06</t>
+  </si>
+  <si>
+    <t>BUS07</t>
+  </si>
+  <si>
+    <t>BUS08</t>
+  </si>
+  <si>
+    <t>BUS09</t>
+  </si>
+  <si>
+    <t>BUS10</t>
+  </si>
+  <si>
+    <t>BUS11</t>
+  </si>
+  <si>
+    <t>SLACK</t>
+  </si>
+  <si>
+    <t>R_a_pu</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>X_prime_d_pu</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>LINE01</t>
+  </si>
+  <si>
+    <t>LINE02</t>
+  </si>
+  <si>
+    <t>LINE03</t>
+  </si>
+  <si>
+    <t>LINE04</t>
+  </si>
+  <si>
+    <t>LINE05</t>
+  </si>
+  <si>
+    <t>LINE06</t>
+  </si>
+  <si>
+    <t>LINE07</t>
+  </si>
+  <si>
+    <t>LINE08</t>
+  </si>
+  <si>
+    <t>LINE09</t>
+  </si>
+  <si>
+    <t>LINE10</t>
+  </si>
+  <si>
+    <t>LINE11</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>TRX01</t>
+  </si>
+  <si>
+    <t>TRX02</t>
+  </si>
+  <si>
+    <t>TRX03</t>
+  </si>
+  <si>
+    <t>methods_to_apply</t>
+  </si>
+  <si>
+    <t>run_Y_or_N</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>0.00000000001</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>general_settings</t>
+  </si>
+  <si>
+    <t>angular_transient_stability_settings</t>
   </si>
 </sst>
 </file>
@@ -214,7 +310,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -253,13 +349,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -267,7 +360,7 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,6 +374,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BC38D-5A2F-4D55-B5BC-0613DF132A45}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,103 +682,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1E-10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F5" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -688,6 +789,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -695,44 +799,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410E2B08-9B34-4C6E-AE1B-B32D3FA6CBB1}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="10" customWidth="1"/>
-    <col min="4" max="9" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
+    <col min="4" max="9" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>48</v>
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -744,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F684D-F80F-4BD9-A48A-8117753BE869}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,58 +858,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>50</v>
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -822,67 +926,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C9BAF8-9A34-417A-BCB5-DAB1A1100ECE}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1"/>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6"/>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5"/>
       <c r="F1"/>
-      <c r="G1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="6"/>
+      <c r="G1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>34</v>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -894,44 +998,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFE84D8-CD74-4582-9E18-7877BA6E8FBC}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="10" customWidth="1"/>
-    <col min="4" max="9" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
+    <col min="4" max="9" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>48</v>
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEA982E-A2ED-46BE-B0BB-413062E9449F}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -953,58 +1057,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>50</v>
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1021,22 +1125,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D48DD1-15F4-4513-B5BD-4E1D2D55455A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>55</v>
+    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1046,104 +1150,852 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93665491-4B2F-4420-B9A6-A9F8D7DBCB09}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.77734375" style="7" customWidth="1"/>
-    <col min="10" max="12" width="11.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="4" width="7.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.77734375" style="6" customWidth="1"/>
+    <col min="13" max="15" width="11.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="11" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>37</v>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{8CE73184-4C0E-49D4-9911-700138E28415}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{8CE73184-4C0E-49D4-9911-700138E28415}">
       <formula1>"SLACK,PV,PQ"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D30A5D0-B3AE-4171-9ECE-4ACD814D8637}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="10" customWidth="1"/>
-    <col min="4" max="6" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
+    <col min="4" max="6" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>28</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1153,34 +2005,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955071-72F3-4B0A-9C3C-3B9E7D8CACAD}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
+    <col min="4" max="5" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>29</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1192,29 +2095,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCE24D-7D5F-41D9-82DD-7D85E8C6610F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="10" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="9" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>27</v>
+    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1226,66 +2129,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E70E6-A07E-4B72-9209-33594FAD4D57}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
+      <c r="A1" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C1"/>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6"/>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5"/>
       <c r="F1"/>
-      <c r="G1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="6"/>
+      <c r="G1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="11" t="s">
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>34</v>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1297,44 +2200,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C476AF78-DE3A-46A3-A769-6A159699459B}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="10" customWidth="1"/>
-    <col min="4" max="9" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
+    <col min="4" max="9" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>48</v>
+    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1346,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7C977D-14B3-4631-A3F3-AE2E1EF0D01E}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1356,58 +2259,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>50</v>
+      <c r="A2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1424,67 +2327,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A024F01-87DF-4304-A2A9-2BE0F5BB9CAF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1"/>
-      <c r="D1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6"/>
+      <c r="D1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5"/>
       <c r="F1"/>
-      <c r="G1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="6"/>
+      <c r="G1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>34</v>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\Power-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E5B84F-8966-4F25-8335-6E3BBC8CDE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266A18DB-B1C9-49C5-82BA-03E18AC810D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="612" windowWidth="17280" windowHeight="9072" tabRatio="935" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETERS" sheetId="19" r:id="rId1"/>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BC38D-5A2F-4D55-B5BC-0613DF132A45}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,7 +2008,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,7 +2095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCE24D-7D5F-41D9-82DD-7D85E8C6610F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\Power-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266A18DB-B1C9-49C5-82BA-03E18AC810D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BAB7F7-8C44-44CE-8C58-D519078EADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="612" windowWidth="17280" windowHeight="9072" tabRatio="935" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETERS" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
   <si>
     <t>Gauss Seidel (GS)</t>
   </si>
@@ -206,24 +206,6 @@
     <t>BUS05</t>
   </si>
   <si>
-    <t>BUS06</t>
-  </si>
-  <si>
-    <t>BUS07</t>
-  </si>
-  <si>
-    <t>BUS08</t>
-  </si>
-  <si>
-    <t>BUS09</t>
-  </si>
-  <si>
-    <t>BUS10</t>
-  </si>
-  <si>
-    <t>BUS11</t>
-  </si>
-  <si>
     <t>SLACK</t>
   </si>
   <si>
@@ -251,27 +233,6 @@
     <t>LINE04</t>
   </si>
   <si>
-    <t>LINE05</t>
-  </si>
-  <si>
-    <t>LINE06</t>
-  </si>
-  <si>
-    <t>LINE07</t>
-  </si>
-  <si>
-    <t>LINE08</t>
-  </si>
-  <si>
-    <t>LINE09</t>
-  </si>
-  <si>
-    <t>LINE10</t>
-  </si>
-  <si>
-    <t>LINE11</t>
-  </si>
-  <si>
     <t>PQ</t>
   </si>
   <si>
@@ -281,9 +242,6 @@
     <t>TRX02</t>
   </si>
   <si>
-    <t>TRX03</t>
-  </si>
-  <si>
     <t>methods_to_apply</t>
   </si>
   <si>
@@ -293,16 +251,19 @@
     <t>values</t>
   </si>
   <si>
-    <t>0.00000000001</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
     <t>general_settings</t>
   </si>
   <si>
     <t>angular_transient_stability_settings</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -667,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BC38D-5A2F-4D55-B5BC-0613DF132A45}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,22 +644,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -706,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -726,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>1</v>
@@ -738,7 +699,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -766,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>3</v>
@@ -790,7 +751,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B3" numberStoredAsText="1"/>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1150,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93665491-4B2F-4420-B9A6-A9F8D7DBCB09}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>15</v>
@@ -1226,22 +1187,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E2" s="12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" s="6">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
@@ -1279,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -1294,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
@@ -1326,25 +1287,25 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="6">
         <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1.2</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -1373,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -1388,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="6">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -1420,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -1435,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L6" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -1447,288 +1408,6 @@
         <v>0</v>
       </c>
       <c r="O6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="9">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="9">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="9">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="9">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="9">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>9</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1.03</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1745,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D30A5D0-B3AE-4171-9ECE-4ACD814D8637}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1780,221 +1459,81 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9">
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E2" s="6">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F2" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E3" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F3" s="6">
-        <v>2E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6">
-        <v>1.2E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E4" s="6">
-        <v>4.4999999999999998E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B5" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
-        <v>0.01</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E5" s="6">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="F7" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="9">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="9">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="9">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2005,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955071-72F3-4B0A-9C3C-3B9E7D8CACAD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,53 +1576,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
       </c>
       <c r="D2" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>0.25</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B3" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6">
-        <v>8.0000000000000002E-3</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="9">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -2095,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCE24D-7D5F-41D9-82DD-7D85E8C6610F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\Power-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BAB7F7-8C44-44CE-8C58-D519078EADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266A18DB-B1C9-49C5-82BA-03E18AC810D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="612" windowWidth="17280" windowHeight="9072" tabRatio="935" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETERS" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
   <si>
     <t>Gauss Seidel (GS)</t>
   </si>
@@ -206,6 +206,24 @@
     <t>BUS05</t>
   </si>
   <si>
+    <t>BUS06</t>
+  </si>
+  <si>
+    <t>BUS07</t>
+  </si>
+  <si>
+    <t>BUS08</t>
+  </si>
+  <si>
+    <t>BUS09</t>
+  </si>
+  <si>
+    <t>BUS10</t>
+  </si>
+  <si>
+    <t>BUS11</t>
+  </si>
+  <si>
     <t>SLACK</t>
   </si>
   <si>
@@ -233,6 +251,27 @@
     <t>LINE04</t>
   </si>
   <si>
+    <t>LINE05</t>
+  </si>
+  <si>
+    <t>LINE06</t>
+  </si>
+  <si>
+    <t>LINE07</t>
+  </si>
+  <si>
+    <t>LINE08</t>
+  </si>
+  <si>
+    <t>LINE09</t>
+  </si>
+  <si>
+    <t>LINE10</t>
+  </si>
+  <si>
+    <t>LINE11</t>
+  </si>
+  <si>
     <t>PQ</t>
   </si>
   <si>
@@ -242,6 +281,9 @@
     <t>TRX02</t>
   </si>
   <si>
+    <t>TRX03</t>
+  </si>
+  <si>
     <t>methods_to_apply</t>
   </si>
   <si>
@@ -251,19 +293,16 @@
     <t>values</t>
   </si>
   <si>
+    <t>0.00000000001</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
     <t>general_settings</t>
   </si>
   <si>
     <t>angular_transient_stability_settings</t>
-  </si>
-  <si>
-    <t>0.001</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -628,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BC38D-5A2F-4D55-B5BC-0613DF132A45}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,22 +683,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -667,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
@@ -687,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>1</v>
@@ -699,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -727,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>3</v>
@@ -751,7 +790,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B2" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1111,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93665491-4B2F-4420-B9A6-A9F8D7DBCB09}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>15</v>
@@ -1187,22 +1226,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" s="12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
@@ -1240,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G3" s="6">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -1255,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" s="6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
@@ -1287,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -1302,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="L4" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -1334,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -1349,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="6">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -1381,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -1396,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="L6" s="6">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -1408,6 +1447,288 @@
         <v>0</v>
       </c>
       <c r="O6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1424,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D30A5D0-B3AE-4171-9ECE-4ACD814D8637}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,81 +1780,221 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B2" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9">
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E2" s="6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F2" s="6">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6">
-        <v>5.5E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E3" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F3" s="6">
-        <v>2.5000000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>5.5E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E4" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F4" s="6">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1544,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955071-72F3-4B0A-9C3C-3B9E7D8CACAD}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,36 +2037,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
       </c>
       <c r="D2" s="6">
-        <v>0.25</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E2" s="6">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B3" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6">
-        <v>0.25</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E3" s="6">
-        <v>1.03</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +2095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCE24D-7D5F-41D9-82DD-7D85E8C6610F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\Power-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266A18DB-B1C9-49C5-82BA-03E18AC810D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BE63F6-0C03-4FE7-9D60-3C0DF90BD4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="612" windowWidth="17280" windowHeight="9072" tabRatio="935" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETERS" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
   <si>
     <t>Gauss Seidel (GS)</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>angular_transient_stability_settings</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BC38D-5A2F-4D55-B5BC-0613DF132A45}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>3</v>
@@ -2095,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCE24D-7D5F-41D9-82DD-7D85E8C6610F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\Power-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BE63F6-0C03-4FE7-9D60-3C0DF90BD4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA349E06-25A6-4314-8CF6-45D2EB4106F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETERS" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="FD_POWER_BALANCE" sheetId="17" r:id="rId14"/>
     <sheet name="DC_RESULTS" sheetId="18" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="202" uniqueCount="90">
   <si>
     <t>Gauss Seidel (GS)</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Runge-Kutta 4th Order (RK4)</t>
   </si>
   <si>
-    <t>results_1</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -305,17 +302,24 @@
     <t>angular_transient_stability_settings</t>
   </si>
   <si>
-    <t>N</t>
+    <t>result_6</t>
+  </si>
+  <si>
+    <t>result_7</t>
+  </si>
+  <si>
+    <t>result_8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -348,46 +352,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +412,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,7 +529,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -547,9 +553,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -573,7 +579,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -608,7 +614,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -626,7 +632,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -651,7 +657,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -667,179 +673,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BC38D-5A2F-4D55-B5BC-0613DF132A45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BC38D-5A2F-4D55-B5BC-0613DF132A45}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="16.77734375" style="2" customWidth="true"/>
+    <col min="3" max="3" width="19.21875" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="16.77734375" style="2" customWidth="true"/>
+    <col min="5" max="5" width="34.33203125" customWidth="true"/>
+    <col min="6" max="6" width="16.77734375" style="2" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="F1" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="14" t="s">
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>11</v>
+      <c r="F5" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5 F2 F4:F5 B5" xr:uid="{7C66CACD-5672-4E61-B17C-D45EFD76536D}">
+    <dataValidation type="list" allowBlank="true" showInputMessage="true" showErrorMessage="true" sqref="D2:D5 F2 F4:F5 B5">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B3" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:B3" numberStoredAsText="true"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410E2B08-9B34-4C6E-AE1B-B32D3FA6CBB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410E2B08-9B34-4C6E-AE1B-B32D3FA6CBB1}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
-    <col min="4" max="9" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="3" width="7.77734375" style="8" customWidth="true"/>
+    <col min="4" max="9" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -848,71 +854,71 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F684D-F80F-4BD9-A48A-8117753BE869}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F684D-F80F-4BD9-A48A-8117753BE869}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="11.77734375" customWidth="1"/>
+    <col min="1" max="8" width="11.77734375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -922,74 +928,74 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C9BAF8-9A34-417A-BCB5-DAB1A1100ECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C9BAF8-9A34-417A-BCB5-DAB1A1100ECE}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="2" width="7.77734375" style="8" customWidth="true"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="true" customWidth="true"/>
+    <col min="5" max="10" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1"/>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1"/>
+      <c r="G1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1"/>
-      <c r="G1" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -998,47 +1004,47 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFE84D8-CD74-4582-9E18-7877BA6E8FBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFE84D8-CD74-4582-9E18-7877BA6E8FBC}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
-    <col min="4" max="9" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="3" width="7.77734375" style="8" customWidth="true"/>
+    <col min="4" max="9" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1047,71 +1053,71 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEA982E-A2ED-46BE-B0BB-413062E9449F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEA982E-A2ED-46BE-B0BB-413062E9449F}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="11.77734375" customWidth="1"/>
+    <col min="1" max="8" width="11.77734375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1125,25 +1131,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D48DD1-15F4-4513-B5BD-4E1D2D55455A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D48DD1-15F4-4513-B5BD-4E1D2D55455A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" style="8" customWidth="true"/>
+    <col min="2" max="2" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>49</v>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="9" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1152,90 +1158,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93665491-4B2F-4420-B9A6-A9F8D7DBCB09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93665491-4B2F-4420-B9A6-A9F8D7DBCB09}">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="4" width="7.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.77734375" style="6" customWidth="1"/>
-    <col min="13" max="15" width="11.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="4" width="7.77734375" style="8" customWidth="true"/>
+    <col min="5" max="5" width="13.44140625" style="11" customWidth="true"/>
+    <col min="6" max="6" width="14.77734375" style="3" customWidth="true"/>
+    <col min="7" max="7" width="14.33203125" style="6" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="17.109375" style="6" bestFit="true" customWidth="true"/>
+    <col min="9" max="12" width="11.77734375" style="6" customWidth="true"/>
+    <col min="13" max="15" width="11.77734375" style="4" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="9" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="9">
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
         <v>12</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>0.2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="6">
         <v>1.04</v>
@@ -1265,24 +1271,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -1312,24 +1318,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="6">
         <v>1</v>
@@ -1359,24 +1365,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -1406,24 +1412,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
@@ -1453,24 +1459,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
         <v>0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -1500,24 +1506,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1547,24 +1553,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -1594,24 +1600,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
@@ -1641,24 +1647,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
         <v>10</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>0.15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6">
         <v>1.0349999999999999</v>
@@ -1688,24 +1694,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="8">
         <v>11</v>
       </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
         <v>9</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>0.25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="6">
         <v>1.03</v>
@@ -1737,7 +1743,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{8CE73184-4C0E-49D4-9911-700138E28415}">
+    <dataValidation type="list" allowBlank="true" showInputMessage="true" showErrorMessage="true" sqref="F2:F1048576">
       <formula1>"SLACK,PV,PQ"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1747,48 +1753,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D30A5D0-B3AE-4171-9ECE-4ACD814D8637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D30A5D0-B3AE-4171-9ECE-4ACD814D8637}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
-    <col min="4" max="6" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="3" width="7.77734375" style="8" customWidth="true"/>
+    <col min="4" max="6" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="9" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="9">
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>3</v>
       </c>
       <c r="D2" s="6">
@@ -1801,14 +1807,14 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>5</v>
       </c>
       <c r="D3" s="6">
@@ -1821,14 +1827,14 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>6</v>
       </c>
       <c r="D4" s="6">
@@ -1841,14 +1847,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>4</v>
       </c>
       <c r="D5" s="6">
@@ -1861,14 +1867,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>6</v>
       </c>
       <c r="D6" s="6">
@@ -1881,14 +1887,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>6</v>
       </c>
       <c r="D7" s="6">
@@ -1901,14 +1907,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>9</v>
       </c>
       <c r="D8" s="6">
@@ -1921,14 +1927,14 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>7</v>
       </c>
       <c r="D9" s="6">
@@ -1941,14 +1947,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="8">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
       <c r="D10" s="6">
@@ -1961,14 +1967,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="8">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>8</v>
       </c>
       <c r="D11" s="6">
@@ -1981,14 +1987,14 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="8">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>9</v>
       </c>
       <c r="D12" s="6">
@@ -2007,45 +2013,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955071-72F3-4B0A-9C3C-3B9E7D8CACAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9955071-72F3-4B0A-9C3C-3B9E7D8CACAD}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
-    <col min="4" max="5" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="3" width="7.77734375" style="8" customWidth="true"/>
+    <col min="4" max="5" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="9" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>2</v>
       </c>
       <c r="D2" s="6">
@@ -2055,14 +2061,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>10</v>
       </c>
       <c r="D3" s="6">
@@ -2072,14 +2078,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="9">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="8">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>11</v>
       </c>
       <c r="D4" s="6">
@@ -2095,32 +2101,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCE24D-7D5F-41D9-82DD-7D85E8C6610F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CCE24D-7D5F-41D9-82DD-7D85E8C6610F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="9" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="2" width="7.77734375" style="8" customWidth="true"/>
+    <col min="3" max="4" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="9" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2129,69 +2135,69 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E70E6-A07E-4B72-9209-33594FAD4D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924E70E6-A07E-4B72-9209-33594FAD4D57}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="2" width="7.77734375" style="8" customWidth="true"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="17.33203125" style="6" bestFit="true" customWidth="true"/>
+    <col min="5" max="10" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C1"/>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1"/>
+      <c r="G1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1"/>
-      <c r="G1" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" s="9" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2200,47 +2206,47 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C476AF78-DE3A-46A3-A769-6A159699459B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C476AF78-DE3A-46A3-A769-6A159699459B}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="3" width="7.77734375" style="9" customWidth="1"/>
-    <col min="4" max="9" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="3" width="7.77734375" style="8" customWidth="true"/>
+    <col min="4" max="9" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="9" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2249,71 +2255,71 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7C977D-14B3-4631-A3F3-AE2E1EF0D01E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7C977D-14B3-4631-A3F3-AE2E1EF0D01E}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="11.77734375" customWidth="1"/>
+    <col min="1" max="8" width="11.77734375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" s="1" customFormat="true" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" s="1" customFormat="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2327,70 +2333,69 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A024F01-87DF-4304-A2A9-2BE0F5BB9CAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A024F01-87DF-4304-A2A9-2BE0F5BB9CAF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="true" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="true"/>
+    <col min="2" max="2" width="7.77734375" style="8" customWidth="true"/>
+    <col min="3" max="3" width="14.5546875" style="6" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="17.44140625" style="6" bestFit="true" customWidth="true"/>
+    <col min="5" max="10" width="11.77734375" style="6" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1"/>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1"/>
+      <c r="G1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1"/>
-      <c r="G1" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="202" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="242" uniqueCount="130">
   <si>
     <t>Gauss Seidel (GS)</t>
   </si>
@@ -309,6 +309,126 @@
   </si>
   <si>
     <t>result_8</t>
+  </si>
+  <si>
+    <t>result_9</t>
+  </si>
+  <si>
+    <t>result_10</t>
+  </si>
+  <si>
+    <t>result_11</t>
+  </si>
+  <si>
+    <t>result_12</t>
+  </si>
+  <si>
+    <t>result_13</t>
+  </si>
+  <si>
+    <t>result_14</t>
+  </si>
+  <si>
+    <t>result_15</t>
+  </si>
+  <si>
+    <t>result_16</t>
+  </si>
+  <si>
+    <t>result_17</t>
+  </si>
+  <si>
+    <t>result_18</t>
+  </si>
+  <si>
+    <t>result_19</t>
+  </si>
+  <si>
+    <t>result_20</t>
+  </si>
+  <si>
+    <t>result_21</t>
+  </si>
+  <si>
+    <t>result_22</t>
+  </si>
+  <si>
+    <t>result_23</t>
+  </si>
+  <si>
+    <t>result_24</t>
+  </si>
+  <si>
+    <t>result_25</t>
+  </si>
+  <si>
+    <t>result_26</t>
+  </si>
+  <si>
+    <t>result_27</t>
+  </si>
+  <si>
+    <t>result_28</t>
+  </si>
+  <si>
+    <t>result_29</t>
+  </si>
+  <si>
+    <t>result_30</t>
+  </si>
+  <si>
+    <t>result_31</t>
+  </si>
+  <si>
+    <t>result_32</t>
+  </si>
+  <si>
+    <t>result_33</t>
+  </si>
+  <si>
+    <t>result_34</t>
+  </si>
+  <si>
+    <t>result_35</t>
+  </si>
+  <si>
+    <t>result_36</t>
+  </si>
+  <si>
+    <t>result_37</t>
+  </si>
+  <si>
+    <t>result_38</t>
+  </si>
+  <si>
+    <t>result_39</t>
+  </si>
+  <si>
+    <t>result_40</t>
+  </si>
+  <si>
+    <t>result_41</t>
+  </si>
+  <si>
+    <t>result_42</t>
+  </si>
+  <si>
+    <t>result_43</t>
+  </si>
+  <si>
+    <t>result_44</t>
+  </si>
+  <si>
+    <t>result_45</t>
+  </si>
+  <si>
+    <t>result_46</t>
+  </si>
+  <si>
+    <t>result_47</t>
+  </si>
+  <si>
+    <t>result_48</t>
   </si>
 </sst>
 </file>
@@ -755,7 +875,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>2</v>

--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\Power-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA349E06-25A6-4314-8CF6-45D2EB4106F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E65861-4960-4CBA-85E5-4C23B56D5D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="935"/>
   </bookViews>
   <sheets>
     <sheet name="PARAMETERS" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="201" uniqueCount="89">
   <si>
     <t>Gauss Seidel (GS)</t>
   </si>
@@ -302,133 +302,10 @@
     <t>angular_transient_stability_settings</t>
   </si>
   <si>
-    <t>result_6</t>
-  </si>
-  <si>
-    <t>result_7</t>
-  </si>
-  <si>
-    <t>result_8</t>
-  </si>
-  <si>
-    <t>result_9</t>
-  </si>
-  <si>
-    <t>result_10</t>
-  </si>
-  <si>
-    <t>result_11</t>
-  </si>
-  <si>
-    <t>result_12</t>
-  </si>
-  <si>
-    <t>result_13</t>
-  </si>
-  <si>
-    <t>result_14</t>
-  </si>
-  <si>
-    <t>result_15</t>
-  </si>
-  <si>
-    <t>result_16</t>
-  </si>
-  <si>
-    <t>result_17</t>
-  </si>
-  <si>
-    <t>result_18</t>
-  </si>
-  <si>
-    <t>result_19</t>
-  </si>
-  <si>
-    <t>result_20</t>
-  </si>
-  <si>
-    <t>result_21</t>
-  </si>
-  <si>
-    <t>result_22</t>
-  </si>
-  <si>
-    <t>result_23</t>
-  </si>
-  <si>
-    <t>result_24</t>
-  </si>
-  <si>
-    <t>result_25</t>
-  </si>
-  <si>
-    <t>result_26</t>
-  </si>
-  <si>
-    <t>result_27</t>
-  </si>
-  <si>
-    <t>result_28</t>
-  </si>
-  <si>
-    <t>result_29</t>
-  </si>
-  <si>
-    <t>result_30</t>
-  </si>
-  <si>
-    <t>result_31</t>
-  </si>
-  <si>
-    <t>result_32</t>
-  </si>
-  <si>
-    <t>result_33</t>
-  </si>
-  <si>
-    <t>result_34</t>
-  </si>
-  <si>
-    <t>result_35</t>
-  </si>
-  <si>
-    <t>result_36</t>
-  </si>
-  <si>
-    <t>result_37</t>
-  </si>
-  <si>
-    <t>result_38</t>
-  </si>
-  <si>
-    <t>result_39</t>
-  </si>
-  <si>
-    <t>result_40</t>
-  </si>
-  <si>
-    <t>result_41</t>
-  </si>
-  <si>
-    <t>result_42</t>
-  </si>
-  <si>
-    <t>result_43</t>
-  </si>
-  <si>
-    <t>result_44</t>
-  </si>
-  <si>
-    <t>result_45</t>
-  </si>
-  <si>
-    <t>result_46</t>
-  </si>
-  <si>
-    <t>result_47</t>
-  </si>
-  <si>
-    <t>result_48</t>
+    <t>result_1</t>
+  </si>
+  <si>
+    <t>result_2</t>
   </si>
 </sst>
 </file>
@@ -796,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BC38D-5A2F-4D55-B5BC-0613DF132A45}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="true" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>2</v>
@@ -2456,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A024F01-87DF-4304-A2A9-2BE0F5BB9CAF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/sys_val.xlsx
+++ b/sys_val.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="201" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="205" uniqueCount="93">
   <si>
     <t>Gauss Seidel (GS)</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>result_2</t>
+  </si>
+  <si>
+    <t>result_3</t>
+  </si>
+  <si>
+    <t>result_4</t>
+  </si>
+  <si>
+    <t>result_5</t>
+  </si>
+  <si>
+    <t>result_6</t>
   </si>
 </sst>
 </file>
@@ -752,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>2</v>
